--- a/Documentation/burndown.xlsx
+++ b/Documentation/burndown.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">day0</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve">day19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -113,16 +119,24 @@
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -169,8 +183,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +264,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -322,6 +340,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -429,6 +448,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -515,11 +535,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="44092346"/>
-        <c:axId val="66833252"/>
+        <c:axId val="47925972"/>
+        <c:axId val="7882103"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="44092346"/>
+        <c:axId val="47925972"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -592,14 +612,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66833252"/>
+        <c:crossAx val="7882103"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66833252"/>
+        <c:axId val="7882103"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -652,6 +672,212 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47925972"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Expected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$26:$Y$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$26:$Z$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="92017309"/>
+        <c:axId val="27311904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92017309"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -681,7 +907,393 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="44092346"/>
+        <c:crossAx val="27311904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="27311904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92017309"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$B$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4210526315789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.84210526315789</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.26315789473684</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.68421052631579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.10526315789474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.52631578947368</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.94736842105263</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.36842105263158</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.78947368421053</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.21052631578947</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.63157894736842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.05263157894737</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.47368421052632</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.89473684210526</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.31578947368421</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.73684210526316</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1578947368421</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.578947368421053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$24:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="0"/>
+        <c:axId val="20909418"/>
+        <c:axId val="20245783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="20909418"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20245783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="20245783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="20909418"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -722,16 +1334,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>446400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20160</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>173520</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>143640</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -739,12 +1351,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3570480" y="512640"/>
-        <a:ext cx="9099720" cy="5539680"/>
+        <a:off x="6878160" y="7402680"/>
+        <a:ext cx="12801240" cy="7576560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>223200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140040</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="8224200" y="802800"/>
+        <a:ext cx="5501160" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>90000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>67320</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2308680" y="3828600"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -758,231 +1430,494 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R27" activeCellId="0" sqref="R27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.58673469387755"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="n">
+      <c r="C1" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>12.315789474</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>12.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="1" t="n">
         <v>11.631578947</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <v>10.947368421</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <v>10.263157895</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <v>9.578947368</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <v>8.894736842</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <v>8.210526316</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <v>7.526315789</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10" s="1" t="n">
         <v>6.842105263</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="C10" s="1" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <v>6.157894737</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <v>5.473684211</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <v>4.789473684</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <v>4.105263158</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="1" t="n">
         <v>3.421052632</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="C15" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <v>2.736842105</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>2.052631579</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>1.368421053</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>0.684210526</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <f aca="false">11-11*1/19</f>
+        <v>10.4210526315789</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="Y25" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z25" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <f aca="false">11-11*2/19</f>
+        <v>9.84210526315789</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y26" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z26" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <f aca="false">11-11*3/19</f>
+        <v>9.26315789473684</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y27" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <f aca="false">11-11*4/19</f>
+        <v>8.68421052631579</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y28" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <f aca="false">11-11*5/19</f>
+        <v>8.10526315789474</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <f aca="false">11-11*6/19</f>
+        <v>7.52631578947368</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <f aca="false">11-11*7/19</f>
+        <v>6.94736842105263</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <f aca="false">11-11*8/19</f>
+        <v>6.36842105263158</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <f aca="false">11-11*9/19</f>
+        <v>5.78947368421053</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <f aca="false">11-11*10/19</f>
+        <v>5.21052631578947</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <f aca="false">11-11*11/19</f>
+        <v>4.63157894736842</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <f aca="false">11-11*12/19</f>
+        <v>4.05263157894737</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <f aca="false">11-11*13/19</f>
+        <v>3.47368421052632</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <f aca="false">11-11*14/19</f>
+        <v>2.89473684210526</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <f aca="false">11-11*15/19</f>
+        <v>2.31578947368421</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <f aca="false">11-11*16/19</f>
+        <v>1.73684210526316</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <f aca="false">11-11*17/19</f>
+        <v>1.1578947368421</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <f aca="false">11-11*18/19</f>
+        <v>0.578947368421053</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <f aca="false">11-11*19/19</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Documentation/burndown.xlsx
+++ b/Documentation/burndown.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -535,11 +535,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="47925972"/>
-        <c:axId val="7882103"/>
+        <c:axId val="49283403"/>
+        <c:axId val="4246994"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="47925972"/>
+        <c:axId val="49283403"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -612,14 +612,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7882103"/>
+        <c:crossAx val="4246994"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="7882103"/>
+        <c:axId val="4246994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -701,7 +701,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47925972"/>
+        <c:crossAx val="49283403"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -853,7 +853,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,11 +868,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="92017309"/>
-        <c:axId val="27311904"/>
+        <c:axId val="38292051"/>
+        <c:axId val="61723537"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92017309"/>
+        <c:axId val="38292051"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -907,14 +907,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="27311904"/>
+        <c:crossAx val="61723537"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27311904"/>
+        <c:axId val="61723537"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -958,7 +958,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="92017309"/>
+        <c:crossAx val="38292051"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1021,6 +1021,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1117,6 +1118,7 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1203,11 +1205,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="20909418"/>
-        <c:axId val="20245783"/>
+        <c:axId val="94260485"/>
+        <c:axId val="3315966"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="20909418"/>
+        <c:axId val="94260485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1242,14 +1244,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20245783"/>
+        <c:crossAx val="3315966"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20245783"/>
+        <c:axId val="3315966"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1264,7 +1266,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1293,7 +1295,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20909418"/>
+        <c:crossAx val="94260485"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1341,9 +1343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>143640</xdr:colOff>
+      <xdr:colOff>143280</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1351,8 +1353,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6878160" y="7402680"/>
-        <a:ext cx="12801240" cy="7576560"/>
+        <a:off x="7220880" y="7402680"/>
+        <a:ext cx="13391280" cy="7576200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1371,9 +1373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>9000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1381,8 +1383,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8224200" y="802800"/>
-        <a:ext cx="5501160" cy="3238560"/>
+        <a:off x="8624160" y="802800"/>
+        <a:ext cx="5786640" cy="3238200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1401,9 +1403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1411,8 +1413,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2308680" y="3828600"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="2422800" y="3828600"/>
+        <a:ext cx="6045120" cy="3239280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1432,13 +1434,15 @@
   </sheetPr>
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z29" activeCellId="0" sqref="Z29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="24" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1738,6 +1742,9 @@
         <v>9</v>
       </c>
       <c r="Y28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="0" t="n">
         <v>0</v>
       </c>
     </row>
